--- a/Ulti Analytics Summary Stats/SummaryStatsAllTeams.xlsx
+++ b/Ulti Analytics Summary Stats/SummaryStatsAllTeams.xlsx
@@ -2925,8 +2925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB823"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="P807" workbookViewId="0">
+      <selection activeCell="X823" sqref="X823"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -73638,6 +73638,14 @@
       <c r="C823" t="s">
         <v>848</v>
       </c>
+      <c r="U823" s="1">
+        <f>AVERAGE(U2:U822)</f>
+        <v>89.27283800243606</v>
+      </c>
+      <c r="X823" s="1">
+        <f>AVERAGE(X2:X822)</f>
+        <v>95.501827040194883</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
